--- a/Omni Wheel Robot Project/Pin Configuration .xlsx
+++ b/Omni Wheel Robot Project/Pin Configuration .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6702E15-45A1-45E8-AAD3-9AA96FD791EF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38001EE-5D9A-4135-8800-52B6EC24E76C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,12 +64,6 @@
     <t xml:space="preserve">Configuration </t>
   </si>
   <si>
-    <t>A0</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>Bluetooth Refernce RX</t>
   </si>
   <si>
@@ -89,6 +83,12 @@
   </si>
   <si>
     <t>D chaine (Ultrasonic)</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,34 +652,34 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -687,7 +687,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
